--- a/biology/Botanique/Allium_regelianum/Allium_regelianum.xlsx
+++ b/biology/Botanique/Allium_regelianum/Allium_regelianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium regelianum est une espèce de plante vivace du genre Allium de la famille des Amaryllidacées endémique en Russie.
-Il est rare et pousse dans les semi-déserts ainsi que dans les prairies où il s’assèche en été. L’espèce tolère une gamme d’habitats et de types de sols, même les sols salins[1].
-Il a pour  synonymes[2] :
+Il est rare et pousse dans les semi-déserts ainsi que dans les prairies où il s’assèche en été. L’espèce tolère une gamme d’habitats et de types de sols, même les sols salins.
+Il a pour  synonymes :
 Allium ampeloprasum var. regelianum (A.K.Becker) Nyman
 Allium scythicum Zoz
 </t>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante atteint environ 30-60 cm de haut avec 3-4 feuilles semi-cylindriques étroites.  Il fleurit vers la fin juin à juillet. 
 </t>
@@ -546,9 +560,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a été collectée pour la première fois par le botaniste Alexander Becker (1818-1901) dans un quartier de ce qui est maintenant Volgograd (anciennement Krasnoarmeosk), en Russie. L’espèce a été décrite pour la première fois dans une flore en 1929 (Flora Jugo-Vostoka Evropeiskoi chasti SSSR 3:355-6). Il a été nommé d’après E.L. Regel, un directeur du jardin botanique de Saint-Pétersbourg qui a publié dans Botanic Gardens Conservation International (BGCI) un article informatif sur l’espèce intitulée Allium regelianumA. Beck. - une espèce rare endémique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a été collectée pour la première fois par le botaniste Alexander Becker (1818-1901) dans un quartier de ce qui est maintenant Volgograd (anciennement Krasnoarmeosk), en Russie. L’espèce a été décrite pour la première fois dans une flore en 1929 (Flora Jugo-Vostoka Evropeiskoi chasti SSSR 3:355-6). Il a été nommé d’après E.L. Regel, un directeur du jardin botanique de Saint-Pétersbourg qui a publié dans Botanic Gardens Conservation International (BGCI) un article informatif sur l’espèce intitulée Allium regelianumA. Beck. - une espèce rare endémique.
 </t>
         </is>
       </c>
